--- a/Templates/LicDetails.xlsx
+++ b/Templates/LicDetails.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Select License</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">2</t>
   </si>
 </sst>
 </file>
@@ -40,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>

--- a/Templates/LicDetails.xlsx
+++ b/Templates/LicDetails.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Select License</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
